--- a/crm.xlsx
+++ b/crm.xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:B763"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:A763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
